--- a/SRM URL-2.xlsx
+++ b/SRM URL-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -277,13 +277,16 @@
     <t>ProdTracking</t>
   </si>
   <si>
-    <t>http://report.shahi.co.in:8080/ShahiReportsNewM3/ProdTracking/LineWip/LineWip.jsp</t>
+    <t>http://report.shahi.co.in:8080/ShahiReport</t>
   </si>
   <si>
     <t>http://datavisor.shahi.co.in:8081/datavisor-server/#/mySrm/LineWip.jsp</t>
   </si>
   <si>
     <t>http://localhost:4200/#/mySrm/LineWip.jsp</t>
+  </si>
+  <si>
+    <t>ello i know</t>
   </si>
 </sst>
 </file>
@@ -291,9 +294,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -339,8 +342,114 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,89 +463,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -445,31 +471,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,19 +499,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,163 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +724,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -739,7 +766,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +782,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,64 +814,29 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,127 +846,127 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1329,12 +1332,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1814,6 +1817,11 @@
       </c>
       <c r="E28" s="13" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1852,7 @@
     <hyperlink ref="C21" r:id="rId24" display="http://report.shahi.co.in:8080/ShahiReportsNewM3/Samridhi/ItemWiseShipmentReport/ItemWiseShipmentReport.jsp             " tooltip="http://report.shahi.co.in:8080/ShahiReportsNewM3/Samridhi/ItemWiseShipmentReport/ItemWiseShipmentReport.jsp             "/>
     <hyperlink ref="C22" r:id="rId25" display="http://report.shahi.co.in:8080/ShahiReportsNewM3/Samridhi/SewingLineChangeover/SewingLineChangeover.jsp                             " tooltip="http://report.shahi.co.in:8080/ShahiReportsNewM3/Samridhi/SewingLineChangeover/SewingLineChangeover.jsp                             "/>
     <hyperlink ref="C23" r:id="rId26" display="http://report.shahi.co.in:8080/ShahiReportsNewM3/Samridhi/SewingLineChangeover/SewingLineChangeoverWcr.jsp                 " tooltip="http://report.shahi.co.in:8080/ShahiReportsNewM3/Samridhi/SewingLineChangeover/SewingLineChangeoverWcr.jsp                 "/>
-    <hyperlink ref="C28" r:id="rId27" display="http://report.shahi.co.in:8080/ShahiReportsNewM3/ProdTracking/LineWip/LineWip.jsp" tooltip="http://report.shahi.co.in:8080/ShahiReportsNewM3/ProdTracking/LineWip/LineWip.jsp"/>
+    <hyperlink ref="C28" r:id="rId27" display="http://report.shahi.co.in:8080/ShahiReport" tooltip="http://report.shahi.co.in:8080/ShahiReport"/>
     <hyperlink ref="D2" r:id="rId28" display="http://datavisor.shahi.co.in:8081/datavisor-server/#/mySrm/MrsswConsolidatedEnY" tooltip="http://datavisor.shahi.co.in:8081/datavisor-server/#/mySrm/MrsswConsolidatedEnY"/>
     <hyperlink ref="D4" r:id="rId29" display="http://datavisor.shahi.co.in:8081/datavisor-server/#/mySrm/ReceiptAgeingSupplierWise" tooltip="http://datavisor.shahi.co.in:8081/datavisor-server/#/mySrm/ReceiptAgeingSupplierWise"/>
     <hyperlink ref="D5" r:id="rId30" display="http://datavisor.shahi.co.in:8081/datavisor-server/#/mySrm/SubconGreigeFabBalWithSuplrV2" tooltip="http://datavisor.shahi.co.in:8081/datavisor-server/#/mySrm/SubconGreigeFabBalWithSuplrV2"/>
